--- a/Pandas/data.xlsx
+++ b/Pandas/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,15 +436,20 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>train no.s2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>speeds2</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>citys2</t>
         </is>
@@ -458,9 +463,12 @@
         <v>34</v>
       </c>
       <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
         <v>50</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Kanpur</t>
         </is>
@@ -471,12 +479,15 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
         <v>121456</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>60</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>delhi</t>
         </is>
@@ -487,12 +498,15 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
         <v>123659</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>80</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>pune</t>
         </is>
@@ -503,12 +517,15 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
         <v>123654</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>120</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>goa</t>
         </is>
